--- a/bom/snark_barker_BOM.xlsx
+++ b/bom/snark_barker_BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="108" windowWidth="15120" windowHeight="8016"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -599,7 +599,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -642,6 +642,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -655,7 +661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -688,6 +694,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -990,24 +999,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="41.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="30.77734375" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="43.2">
+    <row r="1" spans="1:5" ht="60">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1024,7 +1033,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" ht="28.8">
+    <row r="2" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="A2" s="7">
         <v>2</v>
       </c>
@@ -1041,7 +1050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="10" customFormat="1">
+    <row r="3" spans="1:5" s="10" customFormat="1" ht="30">
       <c r="A3" s="10">
         <v>3</v>
       </c>
@@ -1215,7 +1224,7 @@
       <c r="A13">
         <v>13</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="18" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1351,7 +1360,7 @@
       <c r="A21">
         <v>21</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="18" t="s">
         <v>45</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1419,7 +1428,7 @@
       <c r="A25">
         <v>25</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="18" t="s">
         <v>53</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1997,7 +2006,7 @@
       <c r="A59">
         <v>59</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="18" t="s">
         <v>129</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -2082,7 +2091,7 @@
       <c r="A64">
         <v>64</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="18" t="s">
         <v>142</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -2235,7 +2244,7 @@
       <c r="A73">
         <v>73</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="18" t="s">
         <v>165</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -2303,7 +2312,7 @@
       <c r="A77">
         <v>77</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="18" t="s">
         <v>177</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -2328,7 +2337,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -2341,7 +2350,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/bom/snark_barker_BOM.xlsx
+++ b/bom/snark_barker_BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="108" windowWidth="15120" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -999,24 +999,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="41.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="80.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="80.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="60">
+    <row r="1" spans="1:5" ht="43.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" ht="30">
+    <row r="2" spans="1:5" s="7" customFormat="1" ht="28.8">
       <c r="A2" s="7">
         <v>2</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="10" customFormat="1" ht="30">
+    <row r="3" spans="1:5" s="10" customFormat="1">
       <c r="A3" s="10">
         <v>3</v>
       </c>
@@ -2337,7 +2337,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -2350,7 +2350,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/bom/snark_barker_BOM.xlsx
+++ b/bom/snark_barker_BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="108" windowWidth="15120" windowHeight="8016"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="183">
   <si>
     <t>C5, C6, C8, C9, C10, C16, C19, C33, C34, C47, C48, C50, C53, C56, C69, C70, C71, C72, C73, C74, C75, C76, C77, C80, C81, C82, C83, C84, C85, C86, C89</t>
   </si>
@@ -583,6 +583,9 @@
   </si>
   <si>
     <t>74LS32/555ЛЛ1 (взяты 1533ЛЛ1)</t>
+  </si>
+  <si>
+    <t>five by 13</t>
   </si>
 </sst>
 </file>
@@ -997,26 +1000,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="B70" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="41.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="80.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="43.2">
+    <row r="1" spans="1:5" ht="60">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1033,7 +1036,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="7" customFormat="1" ht="28.8">
+    <row r="2" spans="1:5" s="7" customFormat="1" ht="30">
       <c r="A2" s="7">
         <v>2</v>
       </c>
@@ -1050,7 +1053,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="10" customFormat="1">
+    <row r="3" spans="1:5" s="10" customFormat="1" ht="30">
       <c r="A3" s="10">
         <v>3</v>
       </c>
@@ -2323,6 +2326,49 @@
       </c>
       <c r="E77">
         <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="B83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3">
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="B86" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3">
+      <c r="B87" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3">
+      <c r="B88" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3">
+      <c r="B89" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2337,7 +2383,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -2350,7 +2396,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/bom/snark_barker_BOM.xlsx
+++ b/bom/snark_barker_BOM.xlsx
@@ -1002,14 +1002,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B70" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="41.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" customWidth="1"/>
     <col min="4" max="4" width="30.7109375" customWidth="1"/>
     <col min="5" max="5" width="35.7109375" customWidth="1"/>
     <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
